--- a/01. Recherche opérationnelle (Operations research - Management science)/Etude des livres.xlsx
+++ b/01. Recherche opérationnelle (Operations research - Management science)/Etude des livres.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="32">
   <si>
     <t>Optimization Modeling with Spreadsheets</t>
   </si>
@@ -75,42 +75,51 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">COURSERA
+    <t>Introduction au modeling</t>
+  </si>
+  <si>
+    <t>Déterminer le meilleur prix break even( relation entre prix et volume de vente) non linéaire avec le fichier excel +   explication de l'analyse de sensitivité + méthode du solveur excel</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>tradeoff</t>
+  </si>
+  <si>
+    <t>compromis</t>
+  </si>
+  <si>
+    <t>Programmation non linéaire</t>
+  </si>
+  <si>
+    <t>Fonction convexe</t>
+  </si>
+  <si>
+    <t>fonction en forme de U</t>
+  </si>
+  <si>
+    <t>Foncion concave</t>
+  </si>
+  <si>
+    <t>Fonction en forme de montagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minimise le coût annuel de commande et d'inventaire
+2 Un exemple de remise sur quantité                                                                                                                                3 Facility location en 2 dimensions                                                                                                                                      4 Pricing non linéaire                                                                                                                                                                5 sensitivité des programmes non linéaires                                                                                                                      6 Le portfolio                                                                                                                                                                                7 Comment linéariser
 </t>
   </si>
   <si>
-    <t>Introduction au modeling</t>
-  </si>
-  <si>
-    <t>Déterminer le meilleur prix break even( relation entre prix et volume de vente) non linéaire avec le fichier excel +   explication de l'analyse de sensitivité + méthode du solveur excel</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>tradeoff</t>
-  </si>
-  <si>
-    <t>compromis</t>
-  </si>
-  <si>
-    <t>Programmation non linéaire</t>
-  </si>
-  <si>
-    <t>Fonction convexe</t>
-  </si>
-  <si>
-    <t>fonction en forme de U</t>
-  </si>
-  <si>
-    <t>Foncion concave</t>
-  </si>
-  <si>
-    <t>Fonction en forme de montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 minimise le coût annuel de commande et d'inventaire
-2 Un exemple de remise sur quantité                                                                                                                                3 Facility location en 2 dimensions                                                                                                                                      4 Pricing non linéaire                                                                                                                                                                5 sensitivité des programmes non linéaires                                                                                                                      6 Le portfolio
+    <t>Introduction to Linear Programming</t>
+  </si>
+  <si>
+    <t>Bernard_W_._Taylor_Introduction_to_Management_Science_11th_2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Roberta_S._Russell,_Bernard_W._Taylor]_Operations(Bookos.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COURSERA Taiwan university - Operations research
 </t>
   </si>
 </sst>
@@ -188,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -200,6 +209,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E46"/>
+  <dimension ref="A3:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -513,7 +528,7 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -525,14 +540,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -589,18 +604,26 @@
       <c r="D11" s="5"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -610,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -620,7 +643,7 @@
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -633,7 +656,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -642,7 +665,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -651,7 +674,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -660,7 +683,7 @@
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,7 +692,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -678,7 +701,7 @@
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,7 +710,7 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,8 +719,11 @@
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -707,7 +733,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -717,7 +743,7 @@
       <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -730,7 +756,7 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,7 +765,7 @@
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -748,7 +774,7 @@
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -757,7 +783,7 @@
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -766,7 +792,7 @@
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -775,7 +801,7 @@
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -784,7 +810,7 @@
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -793,8 +819,11 @@
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -804,7 +833,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -814,7 +843,7 @@
       <c r="C38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -827,7 +856,7 @@
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,7 +865,7 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -845,7 +874,7 @@
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -854,7 +883,7 @@
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -863,7 +892,7 @@
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -872,7 +901,7 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -881,7 +910,7 @@
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -890,8 +919,275 @@
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>5</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -903,7 +1199,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+      <selection activeCell="B17" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,12 +1307,12 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1128,26 +1424,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/01. Recherche opérationnelle (Operations research - Management science)/Etude des livres.xlsx
+++ b/01. Recherche opérationnelle (Operations research - Management science)/Etude des livres.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="61">
   <si>
     <t>Optimization Modeling with Spreadsheets</t>
   </si>
@@ -73,9 +73,6 @@
   <si>
     <t xml:space="preserve">UDEMY Optimization with Excel: Operations Research without Coding
 </t>
-  </si>
-  <si>
-    <t>Introduction au modeling</t>
   </si>
   <si>
     <t>Déterminer le meilleur prix break even( relation entre prix et volume de vente) non linéaire avec le fichier excel +   explication de l'analyse de sensitivité + méthode du solveur excel</t>
@@ -121,13 +118,103 @@
   <si>
     <t xml:space="preserve">COURSERA Taiwan university - Operations research
 </t>
+  </si>
+  <si>
+    <t>Chapitre 9</t>
+  </si>
+  <si>
+    <t>Chapitre 10</t>
+  </si>
+  <si>
+    <t>Chapitre 11</t>
+  </si>
+  <si>
+    <t>Chapitre 12</t>
+  </si>
+  <si>
+    <t>Chapitre 13</t>
+  </si>
+  <si>
+    <t>Chapitre 14</t>
+  </si>
+  <si>
+    <t>Les modèles de simulation</t>
+  </si>
+  <si>
+    <t>Les modèles de queue</t>
+  </si>
+  <si>
+    <t>Introduction à la modélisation</t>
+  </si>
+  <si>
+    <t>Introduction à la modélisation dans Excel</t>
+  </si>
+  <si>
+    <t>Introduction à la modélisation d'optimisation</t>
+  </si>
+  <si>
+    <t>Les modèles de programmation linéaire</t>
+  </si>
+  <si>
+    <t>Les modèles de réseau</t>
+  </si>
+  <si>
+    <t>Les modèles en nombres entiers</t>
+  </si>
+  <si>
+    <t>Les modèles non linéaires</t>
+  </si>
+  <si>
+    <t>Le solveur évolutionnaire (génétique)</t>
+  </si>
+  <si>
+    <t>Décisions sous incertitude</t>
+  </si>
+  <si>
+    <t>Introduction aux modèles de simulation</t>
+  </si>
+  <si>
+    <t>Les modèles de régression</t>
+  </si>
+  <si>
+    <t>Le Data Mining</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Introduction à la modelisation</t>
+  </si>
+  <si>
+    <t>Etude de la recherche opérationnelle - Livres Anglais et Français</t>
+  </si>
+  <si>
+    <t>Programmation linéaire : Réseaux</t>
+  </si>
+  <si>
+    <t>Programmation linéaire : Allocation , Covering , Blending</t>
+  </si>
+  <si>
+    <t>L'analyse de sensitivité</t>
+  </si>
+  <si>
+    <t>Programmation en nombres entiers :Choix binaires</t>
+  </si>
+  <si>
+    <t>Programmation en nombres entiers :Contraintes logiques</t>
+  </si>
+  <si>
+    <t>Solutions heuristiques avec le solveur évolutionnaire (génétique)</t>
+  </si>
+  <si>
+    <t>Estelle Huleux Derrien 2022-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +236,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +265,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -193,11 +295,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -213,6 +328,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -495,22 +618,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E79"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="88.140625" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -519,8 +652,11 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -531,101 +667,129 @@
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -634,8 +798,9 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>3</v>
@@ -646,86 +811,96 @@
       <c r="D16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -734,8 +909,9 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>3</v>
@@ -746,86 +922,96 @@
       <c r="D27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -834,8 +1020,9 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>3</v>
@@ -846,348 +1033,472 @@
       <c r="D38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>5</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="5"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="5"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="B49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="5"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="8"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>5</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="7"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>6</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="5"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="5"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="5"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="8"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>6</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="7"/>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>6</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="7"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="5"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="5"/>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="5"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="8"/>
+      <c r="F75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>6</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="7"/>
+      <c r="F76" s="10"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="10"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" s="10"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="5"/>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="5"/>
+      <c r="F80" s="10"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="5"/>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="5"/>
+      <c r="F82" s="10"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="5"/>
+      <c r="F83" s="10"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="5"/>
+      <c r="F84" s="10"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="5"/>
+      <c r="F85" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1312,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1424,26 +1735,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/01. Recherche opérationnelle (Operations research - Management science)/Etude des livres.xlsx
+++ b/01. Recherche opérationnelle (Operations research - Management science)/Etude des livres.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="80">
   <si>
     <t>Optimization Modeling with Spreadsheets</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Microsoft Excel 2013 Data Analysis and Business Modeling</t>
-  </si>
-  <si>
-    <t>Step-By-Step_Optimization_S</t>
   </si>
   <si>
     <t>Wayne_L._Winston_S._Christian_Albright_Practical_Management_Science</t>
@@ -113,9 +110,6 @@
     <t>Bernard_W_._Taylor_Introduction_to_Management_Science_11th_2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> [Roberta_S._Russell,_Bernard_W._Taylor]_Operations(Bookos.org)</t>
-  </si>
-  <si>
     <t xml:space="preserve">COURSERA Taiwan university - Operations research
 </t>
   </si>
@@ -208,13 +202,134 @@
   </si>
   <si>
     <t>Estelle Huleux Derrien 2022-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Roberta_S._Russell,_Bernard_W._Taylor]_Operations Management</t>
+  </si>
+  <si>
+    <t>Step-By-Step_Optimization_with spreadsheets Mark Harmon MBA</t>
+  </si>
+  <si>
+    <t>Production Mix linéaire:Hypothèse de Proportionnalité et Additivité, Hypothèse de divisibilité, Région faisable, Solution optimale, contraintes binding et non binding ,</t>
+  </si>
+  <si>
+    <t>Un problème de budgétisation des immobilisations - Capital Finance</t>
+  </si>
+  <si>
+    <t>Sélection de projets</t>
+  </si>
+  <si>
+    <t>Planification financière à court terme</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Problèmes de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mélange</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Planification du travail </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Méthode du coût minimum
+pour répondre aux besoins en main-d’œuvre (Schedule workers)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Un</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> problème de diète</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Minimiser le coût de la satisfaction d’un ensemble d’exigences</t>
+    </r>
+  </si>
+  <si>
+    <t>Problème de production mixes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problèmes de décision : un modèle d’inventaire Multipériode </t>
+  </si>
+  <si>
+    <t>Multiperiod Financial Models: Multipériode 
+Problème de gestion de trésorerie (cash management)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiperiod Work Scheduling : Planification du travail </t>
+  </si>
+  <si>
+    <t>Livre 1</t>
+  </si>
+  <si>
+    <t>Livre 2</t>
+  </si>
+  <si>
+    <t>Livre 3</t>
+  </si>
+  <si>
+    <t>Livre 4</t>
+  </si>
+  <si>
+    <t>Livre 5</t>
+  </si>
+  <si>
+    <t>Livre 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livre 7 </t>
+  </si>
+  <si>
+    <t>Exercices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,16 +352,23 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +390,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -333,11 +461,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,17 +771,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="D1" t="s">
-        <v>60</v>
+      <c r="A1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -653,18 +790,18 @@
       <c r="C3" s="1"/>
       <c r="D3" s="7"/>
       <c r="F3" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -677,14 +814,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="10"/>
     </row>
@@ -693,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
@@ -705,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
@@ -717,7 +854,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="5"/>
@@ -739,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5"/>
@@ -751,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="5"/>
@@ -763,11 +900,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="11">
@@ -776,13 +913,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,8 +927,8 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2</v>
+      <c r="A15" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -802,13 +939,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -901,11 +1038,11 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>3</v>
+      <c r="A26" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="7"/>
@@ -1012,11 +1149,11 @@
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>4</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="7"/>
@@ -1024,13 +1161,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="9" t="s">
@@ -1043,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
@@ -1055,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="5"/>
@@ -1067,7 +1204,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="5"/>
@@ -1079,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="5"/>
@@ -1091,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="5"/>
@@ -1103,11 +1240,11 @@
         <v>10</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="3"/>
       <c r="F44" s="10"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1115,11 +1252,11 @@
         <v>11</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1127,77 +1264,83 @@
         <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="9"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="5"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="5"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="5"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="10"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="5"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="10"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="5"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="5"/>
+      <c r="E52" s="3"/>
       <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,11 +1348,11 @@
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>5</v>
+      <c r="A54" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="7"/>
@@ -1217,288 +1360,380 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="16" t="s">
         <v>2</v>
       </c>
+      <c r="E55" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="C57" s="3"/>
       <c r="D57" s="5"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="C58" s="3"/>
       <c r="D58" s="5"/>
+      <c r="E58" s="9"/>
       <c r="F58" s="10"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="C59" s="3"/>
       <c r="D59" s="5"/>
+      <c r="E59" s="9"/>
       <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="C60" s="3"/>
       <c r="D60" s="5"/>
+      <c r="E60" s="9"/>
       <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="C61" s="3"/>
       <c r="D61" s="5"/>
+      <c r="E61" s="3"/>
       <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C62" s="3"/>
       <c r="D62" s="5"/>
+      <c r="E62" s="3"/>
       <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="C63" s="3"/>
       <c r="D63" s="5"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="10"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D64" s="8"/>
+      <c r="A64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>6</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="7"/>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="10"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+      <c r="A66" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="3"/>
       <c r="F66" s="10"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C67" s="3"/>
       <c r="D67" s="5"/>
+      <c r="E67" s="3"/>
       <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="8"/>
       <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="5"/>
+      <c r="A69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="7"/>
       <c r="F69" s="10"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="5"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="F70" s="10"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="5"/>
+      <c r="E71" s="9"/>
       <c r="F71" s="10"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="5"/>
+      <c r="E72" s="9"/>
       <c r="F72" s="10"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="5"/>
+      <c r="E73" s="9"/>
       <c r="F73" s="10"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="5"/>
+      <c r="E74" s="9"/>
       <c r="F74" s="10"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="8"/>
+      <c r="A75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="9"/>
       <c r="F75" s="10"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>6</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="7"/>
+      <c r="A76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="3"/>
       <c r="F76" s="10"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="3"/>
       <c r="F77" s="10"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="5"/>
+      <c r="E78" s="3"/>
       <c r="F78" s="10"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="5"/>
+      <c r="D79" s="8"/>
       <c r="F79" s="10"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="5"/>
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="7"/>
       <c r="F80" s="10"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="5"/>
+      <c r="A81" s="3"/>
+      <c r="B81" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="F81" s="10"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="5"/>
+      <c r="E82" s="9"/>
       <c r="F82" s="10"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="5"/>
+      <c r="E83" s="9"/>
       <c r="F83" s="10"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="5"/>
+      <c r="E84" s="9"/>
       <c r="F84" s="10"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="5"/>
-      <c r="F85" s="10"/>
+      <c r="E85" s="9"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1526,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1623,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1735,26 +1970,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/01. Recherche opérationnelle (Operations research - Management science)/Etude des livres.xlsx
+++ b/01. Recherche opérationnelle (Operations research - Management science)/Etude des livres.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LIVRES" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="81">
   <si>
     <t>Optimization Modeling with Spreadsheets</t>
   </si>
@@ -323,6 +323,10 @@
   </si>
   <si>
     <t>Exercices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia Business school University - Operations research -Decisions models
+</t>
   </si>
 </sst>
 </file>
@@ -756,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD68"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B16:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,6 +1953,103 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01. Recherche opérationnelle (Operations research - Management science)/Etude des livres.xlsx
+++ b/01. Recherche opérationnelle (Operations research - Management science)/Etude des livres.xlsx
@@ -10,6 +10,7 @@
     <sheet name="LIVRES" sheetId="1" r:id="rId1"/>
     <sheet name="COURS" sheetId="2" r:id="rId2"/>
     <sheet name="vocabulaire" sheetId="3" r:id="rId3"/>
+    <sheet name="Livres théorie mathématique" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="83">
   <si>
     <t>Optimization Modeling with Spreadsheets</t>
   </si>
@@ -326,6 +327,13 @@
   </si>
   <si>
     <t xml:space="preserve">Colombia Business school University - Operations research -Decisions models
+</t>
+  </si>
+  <si>
+    <t>Livre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche opérationnelle et applications - Bernard Fortz
 </t>
   </si>
 </sst>
@@ -1746,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,7 +1867,7 @@
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>28</v>
@@ -1956,7 +1964,7 @@
     </row>
     <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>80</v>
@@ -2050,6 +2058,103 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2096,4 +2201,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>